--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>0.893730324430364</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.61188520630966</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>-0.8256244756900011</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>1.128600547465064</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>1.813262858385434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>2.397632938760519</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>2.168477229273624</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>0.5991205513815823</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>1.08005015963426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.5555179840670776</v>
+        <v>0.03393100538855442</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.876770729193722</v>
+        <v>0.3351240474928963</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.749602965204744</v>
+        <v>1.743169463154315</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.817887133274421</v>
+        <v>1.13752746419209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.513781691628258</v>
+        <v>1.311489985227077</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.740574921258409</v>
+        <v>1.069982194174801</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.72540577912379</v>
+        <v>1.721454720714122</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.807349526896274</v>
+        <v>1.335637690776181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.026192376700298</v>
+        <v>1.818507532114921</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.115367468044549</v>
+        <v>1.41495314213913</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.31852959217409</v>
+        <v>2.466427116525516</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.811228693949229</v>
+        <v>1.859723853307749</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.001446656562432</v>
+        <v>1.128030950601477</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.9535061289851043</v>
+        <v>0.9160236606447159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-4.378957680654993</v>
+        <v>0.1798886261929367</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.711619913745535</v>
+        <v>0.8029144802146782</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.010673730825384</v>
+        <v>-1.929204335549095</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>5.41299470703982</v>
+        <v>0.8768515943972544</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.906776630685214</v>
+        <v>1.632302710072264</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.996132459072443</v>
+        <v>0.9471575920676267</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.006131358757832661</v>
+        <v>0.01243672673012508</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.257115842174117</v>
+        <v>0.5779606211723021</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.09179388078603967</v>
+        <v>0.01966607787367014</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.580446709939154</v>
+        <v>0.5811853063761419</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5151080441973876</v>
+        <v>0.5364374648222148</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.9526646531309746</v>
+        <v>0.591050555601802</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>0.26989196962941</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>0.5668332592311476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>3.872616460773104</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>2.302293339151018</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>1.385102141502959</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>1.418650881502459</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.03393100538855442</v>
+        <v>-0.09990319152052285</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.3351240474928963</v>
+        <v>0.9503446311848185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.743169463154315</v>
+        <v>1.985365612881851</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.13752746419209</v>
+        <v>1.683270396159919</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.311489985227077</v>
+        <v>1.326941625882871</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.069982194174801</v>
+        <v>1.183026708734536</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.721454720714122</v>
+        <v>1.606236217798274</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.335637690776181</v>
+        <v>1.5164178751083</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.818507532114921</v>
+        <v>1.730343268967593</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.41495314213913</v>
+        <v>1.500360889159746</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.466427116525516</v>
+        <v>2.175463816693268</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.859723853307749</v>
+        <v>1.290682042302871</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.128030950601477</v>
+        <v>0.7385331577992593</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.9160236606447159</v>
+        <v>1.193318741914795</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.1798886261929367</v>
+        <v>-1.986210268830169</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.8029144802146782</v>
+        <v>-1.030455917249229</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.929204335549095</v>
+        <v>0.4846423081591666</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.8768515943972544</v>
+        <v>1.007198277338284</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.632302710072264</v>
+        <v>1.990013243928312</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.9471575920676267</v>
+        <v>1.178997008351645</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.01243672673012508</v>
+        <v>-0.07210020592836042</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.5779606211723021</v>
+        <v>0.7849798646630823</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.01966607787367014</v>
+        <v>-0.03189435474734159</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.5811853063761419</v>
+        <v>0.8280060478212947</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5364374648222148</v>
+        <v>0.1720146172997206</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.591050555601802</v>
+        <v>0.822899916144304</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.4846423081591666</v>
+        <v>0.2860053465882251</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.007198277338284</v>
+        <v>0.8288333393984937</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.990013243928312</v>
+        <v>2.073212743634301</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.178997008351645</v>
+        <v>1.314001387741381</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.07210020592836042</v>
+        <v>0.1702535274276551</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.7849798646630823</v>
+        <v>0.9294108124177747</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.03189435474734159</v>
+        <v>0.0356275218485802</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.8280060478212947</v>
+        <v>0.8589821564190414</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.1720146172997206</v>
+        <v>0.2540664354640843</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.822899916144304</v>
+        <v>0.869826012544328</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_summer.xlsx
@@ -468,7 +468,7 @@
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.302293339151018</v>
+        <v>2.302293339150996</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,7 +479,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.385102141502959</v>
+        <v>1.385102141502936</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -513,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.985365612881851</v>
+        <v>1.985365612881895</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.683270396159919</v>
+        <v>1.683270396159897</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,7 +530,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.326941625882871</v>
+        <v>1.326941625882849</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -547,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.606236217798274</v>
+        <v>1.606236217798318</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.5164178751083</v>
+        <v>1.516417875108278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -581,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.175463816693268</v>
+        <v>2.175463816693246</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.290682042302871</v>
+        <v>1.290682042302849</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,7 +598,7 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.7385331577992593</v>
+        <v>0.7385331577992371</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.2860053465882251</v>
+        <v>0.2860053465882473</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.8288333393984937</v>
+        <v>0.8288333393985159</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,7 +649,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.073212743634301</v>
+        <v>2.073212743634323</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -672,7 +672,7 @@
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.9294108124177747</v>
+        <v>0.9294108124177525</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -689,7 +689,7 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.8589821564190414</v>
+        <v>0.8589821564190636</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -706,7 +706,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.869826012544328</v>
+        <v>0.8698260125443502</v>
       </c>
     </row>
   </sheetData>
